--- a/sam 구축/sam_08_30.xlsx
+++ b/sam 구축/sam_08_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/sam 구축/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287C80F-E349-AD45-B375-FB8887AFC873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE02CD67-935E-4247-9E36-234800E14BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{740B11CA-9E93-9749-BF83-CAF5EAB4A726}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{740B11CA-9E93-9749-BF83-CAF5EAB4A726}"/>
   </bookViews>
   <sheets>
     <sheet name="설명표" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="거시 사회계정행렬(국산, 수입 구분)" sheetId="2" r:id="rId4"/>
     <sheet name="미시 사회계정행렬(국산, 수입 구분)" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="59">
   <si>
     <t>생산활동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,12 +249,20 @@
   </si>
   <si>
     <t>공간정보 관련 협회 및 단체</t>
+  </si>
+  <si>
+    <t>피용자보수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -280,12 +288,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -294,11 +317,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,7 +657,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -632,28 +671,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -694,7 +733,7 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" t="s">
@@ -720,15 +759,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="39" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -737,7 +779,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="39" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -751,7 +793,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="39" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -760,7 +802,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="39" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -798,7 +840,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="39" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -809,7 +851,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -818,7 +860,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="39" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -827,7 +869,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="39" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -838,7 +880,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="39" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -850,296 +892,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="39" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C856564-A6F2-194B-8AB1-023F072C4D1B}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f>SUM(C3:N3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O14" si="0">SUM(C4:N4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15">
-        <f>SUM(C3:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:N15" si="1">SUM(D3:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1159,87 +915,554 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C856564-A6F2-194B-8AB1-023F072C4D1B}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2465176.361</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>935933.77899999998</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>328663.18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>606119.42799999996</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>761603.00699999998</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <f>SUM(C3:N3)</f>
+        <v>5097495.7550000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="39" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>913408.76399999997</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O14" si="0">SUM(C4:N4)</f>
+        <v>913408.76399999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="39" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>826673.0120000001</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <f t="shared" si="0"/>
+        <v>826673.0120000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="39" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>913408.76399999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>826673.0120000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>1740081.7760000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="39" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="39" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>160659.128</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <f t="shared" si="0"/>
+        <v>160659.128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="39" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="39" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>160659.128</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>160659.128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="39" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="39" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="39" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>761603.00699999998</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="0"/>
+        <v>761603.00699999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="39" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>731578.49</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <f>N13-C14</f>
+        <v>30024.516999999993</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <f t="shared" si="0"/>
+        <v>761603.00699999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="39" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2">
+        <f>SUM(C3:C14)</f>
+        <v>5097495.7549999999</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:N15" si="1">SUM(D3:D14)</f>
+        <v>913408.76399999997</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>826673.0120000001</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>935933.77899999998</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>328663.18</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>636143.94499999995</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>160659.128</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>761603.00699999998</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="1"/>
+        <v>761603.00699999998</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB380550-22D8-EA43-BE9F-0826CAE7A410}">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="33" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+    <row r="1" spans="1:37" ht="33" customHeight="1">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
       <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="33" customHeight="1">
+    <row r="2" spans="1:37" ht="33" customHeight="1">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -1336,270 +1559,1106 @@
       <c r="AH2" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" ht="33" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="AI2" s="6"/>
+    </row>
+    <row r="3" spans="1:37" ht="33" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="AI3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3">
         <f>SUM(C3:AH3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" ht="33" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="AK3" s="3">
+        <f>SUM(AI3:AI23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="33" customHeight="1">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="AI4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3">
         <f t="shared" ref="AI4:AI26" si="0">SUM(C4:AH4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="33" customHeight="1">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:37" ht="33" customHeight="1">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="33" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="33" customHeight="1">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="33" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="33" customHeight="1">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="33" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="33" customHeight="1">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="33" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="33" customHeight="1">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="33" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="33" customHeight="1">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="33" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="33" customHeight="1">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="33" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="33" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="33" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="33" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="33" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="33" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="33" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="33" customHeight="1">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="33" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="33" customHeight="1">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="AI16">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="33" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="AI17">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="33" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="AI18">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="33" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="AI19">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="33" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="AI20">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="33" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="AI21">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="33" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="AI22">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="33" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="AI23">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="33" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="AI24">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="33" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="AI25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="33" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="AI26">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="33" customHeight="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="AI27">
-        <f t="shared" ref="AI24:AI34" si="1">SUM(C27:AH27)</f>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3">
+        <f t="shared" ref="AI27:AI34" si="1">SUM(C27:AH27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="33" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="AI28">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1611,213 +2670,409 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="AI29">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="33" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="AI30">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="33" customHeight="1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="AI31">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="33" customHeight="1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="AI32">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="33" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="AI33">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="33" customHeight="1">
-      <c r="A34" s="1"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="AI34">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="33" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35">
+      <c r="B35" s="6"/>
+      <c r="C35" s="3">
         <f>SUM(C3:C34)</f>
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <f t="shared" ref="D35:Z35" si="2">SUM(D3:D34)</f>
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="3">
+        <f>SUM(W3:W34)</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X35">
+      <c r="Y35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="Z35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" ref="X35:AH35" si="3">SUM(AA3:AA34)</f>
-        <v>0</v>
-      </c>
-      <c r="AB35">
+      <c r="AA35" s="3">
+        <f t="shared" ref="AA35:AH35" si="3">SUM(AA3:AA34)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AI35" s="3"/>
+    </row>
+    <row r="38" spans="1:35" ht="33" customHeight="1">
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A3:A23"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1839,32 +3094,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1908,10 +3163,10 @@
       <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="39" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -1923,7 +3178,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="39" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1933,7 +3188,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1945,7 +3200,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="39" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +3210,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="39" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1967,7 +3222,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="39" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +3232,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="39" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1999,7 +3254,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -2011,7 +3266,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="39" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +3276,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="39" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +3286,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="39" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -2043,7 +3298,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="39" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -2053,10 +3308,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="39" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="6"/>
       <c r="C16">
         <f>SUM(C3:C15)</f>
         <v>0</v>
@@ -2082,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="E16:O16" si="2">SUM(I3:I15)</f>
+        <f t="shared" ref="I16:O16" si="2">SUM(I3:I15)</f>
         <v>0</v>
       </c>
       <c r="J16">
@@ -2112,18 +3367,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E74E495-19C2-B348-9BFC-78328AEB3FDE}">
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="X7" sqref="W7:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2163,74 +3418,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1" t="s">
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
       <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1" t="s">
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1" t="s">
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2394,10 +3649,10 @@
       <c r="BC2" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" s="1"/>
+      <c r="BD2" s="6"/>
     </row>
     <row r="3" spans="1:56" ht="39" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
@@ -2409,127 +3664,127 @@
       </c>
     </row>
     <row r="4" spans="1:56" ht="39" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="39" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="39" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="39" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="39" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="39" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="39" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="39" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="39" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="39" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="39" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="39" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="39" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:56" ht="39" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:56" ht="39" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:56" ht="39" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:56" ht="39" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="39" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:56" ht="39" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:56" ht="39" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="39" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
@@ -2541,176 +3796,176 @@
       </c>
     </row>
     <row r="25" spans="1:56" ht="39" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:56" ht="39" customHeight="1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:56" ht="39" customHeight="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:56" ht="39" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:56" ht="39" customHeight="1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:56" ht="39" customHeight="1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="39" customHeight="1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="39" customHeight="1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="39" customHeight="1">
-      <c r="A33" s="1"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="39" customHeight="1">
-      <c r="A34" s="1"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:56" ht="39" customHeight="1">
-      <c r="A35" s="1"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="39" customHeight="1">
-      <c r="A36" s="1"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="39" customHeight="1">
-      <c r="A37" s="1"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="39" customHeight="1">
-      <c r="A38" s="1"/>
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:56" ht="39" customHeight="1">
-      <c r="A39" s="1"/>
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:56" ht="39" customHeight="1">
-      <c r="A40" s="1"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="39" customHeight="1">
-      <c r="A41" s="1"/>
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:56" ht="39" customHeight="1">
-      <c r="A42" s="1"/>
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:56" ht="39" customHeight="1">
-      <c r="A43" s="1"/>
+      <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:56" ht="39" customHeight="1">
-      <c r="A44" s="1"/>
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="39" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="BD45">
-        <f>SUM(C45:BC45)</f>
+        <f t="shared" ref="BD45:BD55" si="0">SUM(C45:BC45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="39" customHeight="1">
-      <c r="A46" s="1"/>
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="BD46">
-        <f>SUM(C46:BC46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="39" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="BD47">
-        <f>SUM(C47:BC47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:56" ht="39" customHeight="1">
-      <c r="A48" s="1"/>
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="BD48">
-        <f>SUM(C48:BC48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:56" ht="39" customHeight="1">
-      <c r="A49" s="1"/>
+      <c r="A49" s="6"/>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="BD49">
-        <f>SUM(C49:BC49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2722,138 +3977,138 @@
         <v>9</v>
       </c>
       <c r="BD50">
-        <f>SUM(C50:BC50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:56" ht="39" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="BD51">
-        <f>SUM(C51:BC51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:56" ht="39" customHeight="1">
-      <c r="A52" s="1"/>
+      <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="BD52">
-        <f>SUM(C52:BC52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:56" ht="39" customHeight="1">
-      <c r="A53" s="1"/>
+      <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="BD53">
-        <f>SUM(C53:BC53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:56" ht="39" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="BD54">
-        <f>SUM(C54:BC54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:56" ht="39" customHeight="1">
-      <c r="A55" s="1"/>
+      <c r="A55" s="6"/>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="BD55">
-        <f>SUM(C55:BC55)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:56" ht="39" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="6"/>
       <c r="C56">
         <f>SUM(C3:C55)</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="shared" ref="X56:BC56" si="0">SUM(X3:X55)</f>
+        <f t="shared" ref="X56:BC56" si="1">SUM(X3:X55)</f>
         <v>0</v>
       </c>
       <c r="AS56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AX56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AY56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BA56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BB56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BC56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="X1:AR1"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A24:A44"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A24:A44"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="X1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sam 구축/sam_08_30.xlsx
+++ b/sam 구축/sam_08_30.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/sam 구축/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\sam 구축\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE02CD67-935E-4247-9E36-234800E14BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{740B11CA-9E93-9749-BF83-CAF5EAB4A726}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="설명표" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="거시 사회계정행렬(국산, 수입 구분)" sheetId="2" r:id="rId4"/>
     <sheet name="미시 사회계정행렬(국산, 수입 구분)" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="60">
   <si>
     <t>생산활동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,18 +251,22 @@
   </si>
   <si>
     <t>피용자보수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +281,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,50 +665,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2307ED2D-B759-CA42-BC16-53F3D66D120B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -733,9 +745,9 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1">
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -758,8 +770,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -769,8 +781,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -778,8 +790,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -792,8 +804,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -801,8 +813,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -822,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1">
+    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -839,8 +851,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -850,8 +862,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -859,8 +871,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -868,8 +880,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -879,8 +891,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -891,11 +903,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -916,53 +928,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C856564-A6F2-194B-8AB1-023F072C4D1B}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -999,9 +1011,9 @@
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1">
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,8 +1047,8 @@
         <v>5097495.7550000008</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1061,8 +1073,8 @@
         <v>913408.76399999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1082,9 @@
         <v>826673.0120000001</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1085,8 +1099,8 @@
         <v>826673.0120000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1097,7 +1111,7 @@
         <v>913408.76399999997</v>
       </c>
       <c r="E6" s="2">
-        <v>826673.0120000001</v>
+        <v>261977.7</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1110,16 +1124,20 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>1740081.7760000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1">
-      <c r="A7" s="7"/>
+        <v>1175386.4639999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="3">
+        <f>C5-E6</f>
+        <v>564695.31200000015</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1131,11 +1149,11 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1">
-      <c r="A8" s="7"/>
+        <v>564695.31200000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,22 +1161,30 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>98638.134000000136</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>34470.755000000005</v>
+      </c>
       <c r="J8" s="2">
         <v>160659.128</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <v>72174.278000000006</v>
+      </c>
+      <c r="L8" s="2">
+        <v>96355.684999999823</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>160659.128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1">
+        <v>462297.97999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,9 +1194,15 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2">
+        <v>143097</v>
+      </c>
+      <c r="G9" s="2">
+        <v>393882.9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>133634.79999999999</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1179,11 +1211,11 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1">
-      <c r="A10" s="7" t="s">
+        <v>670614.69999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1208,8 +1240,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1249,9 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>72174.278000000006</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1227,18 +1261,20 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1">
-      <c r="A12" s="7"/>
+        <v>72174.278000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>96355.684999999823</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1249,11 +1285,11 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1">
-      <c r="A13" s="7" t="s">
+        <v>96355.684999999823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1278,8 +1314,8 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,11 +1341,11 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
         <v>5097495.7549999999</v>
@@ -1324,19 +1360,19 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>935933.77899999998</v>
+        <v>1175386.4639999999</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>564695.31200000015</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>328663.18</v>
+        <v>462297.98</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>636143.94499999995</v>
+        <v>670614.69999999995</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
@@ -1344,11 +1380,11 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72174.278000000006</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96355.684999999823</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
@@ -1359,6 +1395,9 @@
         <v>761603.00699999998</v>
       </c>
       <c r="O15" s="2"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1380,89 +1419,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB380550-22D8-EA43-BE9F-0826CAE7A410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="S13" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="33" customHeight="1">
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+    <row r="1" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
       <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6" t="s">
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6" t="s">
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="33" customHeight="1">
+    <row r="2" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -1559,36 +1598,78 @@
       <c r="AH2" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="1:37" ht="33" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="AI2" s="7"/>
+    </row>
+    <row r="3" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="C3" s="3">
+        <v>4473.0429999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.319</v>
+      </c>
+      <c r="E3" s="3">
+        <v>39046.895121900001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>49.076796000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10.343</v>
+      </c>
+      <c r="H3" s="3">
+        <v>380.60899999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <v>21.111999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9454.4419999999991</v>
+      </c>
+      <c r="K3" s="3">
+        <v>19.204805</v>
+      </c>
+      <c r="L3" s="3">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8.7260000000000009</v>
+      </c>
+      <c r="N3" s="3">
+        <v>281.93489679999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>290.95</v>
+      </c>
+      <c r="P3" s="3">
+        <v>89.918999999999997</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1150.008</v>
+      </c>
+      <c r="R3" s="3">
+        <v>203.1617104</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2.0258780999999999</v>
+      </c>
+      <c r="T3" s="3">
+        <v>30.207204000000001</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3.135195</v>
+      </c>
+      <c r="V3" s="3">
+        <v>136.08210320000001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>5.1982895999999998</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1602,39 +1683,78 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3">
         <f>SUM(C3:AH3)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3">
-        <f>SUM(AI3:AI23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="33" customHeight="1">
-      <c r="A4" s="6"/>
+        <v>55696.429000000004</v>
+      </c>
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="C4" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>110842.21400000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>37676.635000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>293.53500000000003</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.194</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="N4" s="3">
+        <v>23.072650799999998</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5.3920000000000003</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>8.6430000000000007</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.5723492</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1648,35 +1768,77 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3">
         <f t="shared" ref="AI4:AI26" si="0">SUM(C4:AH4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="33" customHeight="1">
-      <c r="A5" s="6"/>
+        <v>148859.299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="C5" s="3">
+        <v>17747.875359400001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>659.44305039999995</v>
+      </c>
+      <c r="E5" s="3">
+        <v>839233.6035804787</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12865.232927056899</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13861.0813655</v>
+      </c>
+      <c r="H5" s="3">
+        <v>103098.13265129999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>41947.463117600004</v>
+      </c>
+      <c r="J5" s="3">
+        <v>58596.154099299994</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8200.9914303199803</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4030.4418646999998</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3766.4950039</v>
+      </c>
+      <c r="N5" s="3">
+        <v>33513.140411987762</v>
+      </c>
+      <c r="O5" s="3">
+        <v>9881.3841632000003</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7971.0091967999997</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>39895.570822400005</v>
+      </c>
+      <c r="R5" s="3">
+        <v>24575.584037496323</v>
+      </c>
+      <c r="S5" s="3">
+        <v>9481.8572919213293</v>
+      </c>
+      <c r="T5" s="3">
+        <v>7918.6651780430993</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2532.2076575800197</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2417.9420603122398</v>
+      </c>
+      <c r="W5" s="3">
+        <v>300.55839810368002</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1690,35 +1852,77 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="33" customHeight="1">
-      <c r="A6" s="6"/>
+        <v>1242494.8336677996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="C6" s="3">
+        <v>1435.5662299999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35.198197</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43166.554754787889</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4423.724786062</v>
+      </c>
+      <c r="G6" s="3">
+        <v>745.36637400000006</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5118.3661540000003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1780.2489520000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8450.0668020000012</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5037.7166552658009</v>
+      </c>
+      <c r="L6" s="3">
+        <v>585.75289100000009</v>
+      </c>
+      <c r="M6" s="3">
+        <v>381.59492999999998</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3221.8914249036002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1030.6090019999999</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1202.5059210000002</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7098.1243770000001</v>
+      </c>
+      <c r="R6" s="3">
+        <v>3079.3324182056003</v>
+      </c>
+      <c r="S6" s="3">
+        <v>664.37594721210007</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2722.8419119380001</v>
+      </c>
+      <c r="U6" s="3">
+        <v>296.95781073420011</v>
+      </c>
+      <c r="V6" s="3">
+        <v>276.69162309640001</v>
+      </c>
+      <c r="W6" s="3">
+        <v>45.609230794399998</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1732,35 +1936,77 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="33" customHeight="1">
-      <c r="A7" s="6"/>
+        <v>90799.096392999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="C7" s="3">
+        <v>915.38099999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>108.59</v>
+      </c>
+      <c r="E7" s="3">
+        <v>37997.902108800001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2401.5373949999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>16182.191999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1052.788</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2613.6729999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5156.241</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1262.4525538</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1434.4010000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3101.9870000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <v>8317.9505816000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1856.575</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3970.3519999999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5150.9740000000002</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2653.2842648000001</v>
+      </c>
+      <c r="S7" s="3">
+        <v>192.56589120000001</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1478.1676050000001</v>
+      </c>
+      <c r="U7" s="3">
+        <v>162.1914462</v>
+      </c>
+      <c r="V7" s="3">
+        <v>566.94141839999998</v>
+      </c>
+      <c r="W7" s="3">
+        <v>46.388735199999999</v>
+      </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1774,35 +2020,77 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="6"/>
+        <v>96622.535999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="C8" s="3">
+        <v>81.793000000000006</v>
+      </c>
+      <c r="D8" s="3">
+        <v>16.648</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1208.1629416000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>187.527907</v>
+      </c>
+      <c r="G8" s="3">
+        <v>539.93100000000004</v>
+      </c>
+      <c r="H8" s="3">
+        <v>87.266000000000005</v>
+      </c>
+      <c r="I8" s="3">
+        <v>216.84</v>
+      </c>
+      <c r="J8" s="3">
+        <v>337.71300000000002</v>
+      </c>
+      <c r="K8" s="3">
+        <v>231.3851392</v>
+      </c>
+      <c r="L8" s="3">
+        <v>92.283000000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>9163.8279999999995</v>
+      </c>
+      <c r="N8" s="3">
+        <v>678.84524399999998</v>
+      </c>
+      <c r="O8" s="3">
+        <v>833.03499999999997</v>
+      </c>
+      <c r="P8" s="3">
+        <v>176.26599999999999</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>115.029</v>
+      </c>
+      <c r="R8" s="3">
+        <v>224.06989199999998</v>
+      </c>
+      <c r="S8" s="3">
+        <v>14.5810584</v>
+      </c>
+      <c r="T8" s="3">
+        <v>115.42509299999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>31.973860799999997</v>
+      </c>
+      <c r="V8" s="3">
+        <v>80.560756000000012</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3.387108</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -1816,35 +2104,77 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="6"/>
+        <v>14436.551000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="C9" s="3">
+        <v>1006.255</v>
+      </c>
+      <c r="D9" s="3">
+        <v>626.02099999999996</v>
+      </c>
+      <c r="E9" s="3">
+        <v>46872.543870399997</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13230.593897999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1782.85</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2406.4050000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>23796.05</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1142.2760000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1766.2126880000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>885.10400000000004</v>
+      </c>
+      <c r="M9" s="3">
+        <v>570.495</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4964.6881651999993</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2587.777</v>
+      </c>
+      <c r="P9" s="3">
+        <v>476.87299999999999</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>603.60299999999995</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1183.1409328</v>
+      </c>
+      <c r="S9" s="3">
+        <v>546.23112960000003</v>
+      </c>
+      <c r="T9" s="3">
+        <v>8143.5481019999997</v>
+      </c>
+      <c r="U9" s="3">
+        <v>851.16931199999999</v>
+      </c>
+      <c r="V9" s="3">
+        <v>754.48183480000012</v>
+      </c>
+      <c r="W9" s="3">
+        <v>72.810067200000006</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1858,35 +2188,77 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="6"/>
+        <v>114269.129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="C10" s="3">
+        <v>621.39800000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>98.004000000000005</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11723.701414200001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7536.5775519999997</v>
+      </c>
+      <c r="G10" s="3">
+        <v>931.19500000000005</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1142.242</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2630.5990000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1862.1780000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1937.6779828000001</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4717.0230000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1681.306</v>
+      </c>
+      <c r="N10" s="3">
+        <v>11055.381019999999</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3037.89</v>
+      </c>
+      <c r="P10" s="3">
+        <v>8070.6440000000002</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>5936.2950000000001</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5060.3196383999993</v>
+      </c>
+      <c r="S10" s="3">
+        <v>226.40558580000001</v>
+      </c>
+      <c r="T10" s="3">
+        <v>4638.8304479999997</v>
+      </c>
+      <c r="U10" s="3">
+        <v>483.96501719999998</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1011.14198</v>
+      </c>
+      <c r="W10" s="3">
+        <v>838.8803615999999</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -1900,35 +2272,77 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="6"/>
+        <v>75241.654999999984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="C11" s="3">
+        <v>198.75600700000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15.678584600000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4108.9196559271995</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5859.2509027574006</v>
+      </c>
+      <c r="G11" s="3">
+        <v>371.8069686</v>
+      </c>
+      <c r="H11" s="3">
+        <v>407.80618420000002</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1504.1990863999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1288.3053936000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>13080.609454265599</v>
+      </c>
+      <c r="L11" s="3">
+        <v>6985.7902255999998</v>
+      </c>
+      <c r="M11" s="3">
+        <v>813.33554520000007</v>
+      </c>
+      <c r="N11" s="3">
+        <v>15062.23582511872</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2234.9409267999999</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2565.3153605999996</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>550.25241579999999</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2298.6356917206399</v>
+      </c>
+      <c r="S11" s="3">
+        <v>77.233292872799993</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3606.4209918426</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2392.1200843344</v>
+      </c>
+      <c r="V11" s="3">
+        <v>535.67653568127992</v>
+      </c>
+      <c r="W11" s="3">
+        <v>156.42059027936</v>
+      </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -1942,35 +2356,77 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="6"/>
+        <v>64113.709723200009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="C12" s="3">
+        <v>1231.0119999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>191.881</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18623.606704999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5027.0351799999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2048.471</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5248.2089999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2440.3780000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3163.9119999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1425.7833298</v>
+      </c>
+      <c r="L12" s="3">
+        <v>28519.482</v>
+      </c>
+      <c r="M12" s="3">
+        <v>20055.798999999999</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5154.3130964000002</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4989.7780000000002</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1699.3879999999999</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3701.8310000000001</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1994.7095967999999</v>
+      </c>
+      <c r="S12" s="3">
+        <v>302.27329499999996</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3094.1848199999999</v>
+      </c>
+      <c r="U12" s="3">
+        <v>350.77867019999997</v>
+      </c>
+      <c r="V12" s="3">
+        <v>261.10590359999998</v>
+      </c>
+      <c r="W12" s="3">
+        <v>130.98140319999999</v>
+      </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -1984,35 +2440,77 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="6"/>
+        <v>109654.91300000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="C13" s="3">
+        <v>66.954999999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.782</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3812.8829238999997</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9594.3285370000012</v>
+      </c>
+      <c r="G13" s="3">
+        <v>564.05100000000004</v>
+      </c>
+      <c r="H13" s="3">
+        <v>781.476</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1530.2639999999999</v>
+      </c>
+      <c r="J13" s="3">
+        <v>11059.503000000001</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1260.54375</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7292.3990000000003</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7982.9769999999999</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7643.1378156000001</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1738.5119999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>2240.83</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3964.5590000000002</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2135.0154175999996</v>
+      </c>
+      <c r="S13" s="3">
+        <v>72.34307609999999</v>
+      </c>
+      <c r="T13" s="3">
+        <v>5905.3944630000005</v>
+      </c>
+      <c r="U13" s="3">
+        <v>400.34924999999998</v>
+      </c>
+      <c r="V13" s="3">
+        <v>419.91518440000004</v>
+      </c>
+      <c r="W13" s="3">
+        <v>185.7835824</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2026,35 +2524,77 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="6"/>
+        <v>68659.002000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="C14" s="3">
+        <v>1288.728584</v>
+      </c>
+      <c r="D14" s="3">
+        <v>375.57602839999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>62096.167612459125</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14791.599912481601</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4432.4957904000003</v>
+      </c>
+      <c r="H14" s="3">
+        <v>19824.860771600001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13794.367159199999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4954.8961156000005</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11740.967295653199</v>
+      </c>
+      <c r="L14" s="3">
+        <v>14557.4969272</v>
+      </c>
+      <c r="M14" s="3">
+        <v>12016.583045199999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>30184.3030770648</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5924.7485372000001</v>
+      </c>
+      <c r="P14" s="3">
+        <v>4699.5799731999996</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2958.9091639999997</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4794.6532434396804</v>
+      </c>
+      <c r="S14" s="3">
+        <v>632.97026714087997</v>
+      </c>
+      <c r="T14" s="3">
+        <v>9104.3611739184016</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2285.6313339467997</v>
+      </c>
+      <c r="V14" s="3">
+        <v>2190.7591505351998</v>
+      </c>
+      <c r="W14" s="3">
+        <v>196.25138856031998</v>
+      </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -2068,35 +2608,77 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="6"/>
+        <v>222845.90655120002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="C15" s="3">
+        <v>94.936000000000007</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>581.79499999999996</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2823.0039999999999</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -2110,35 +2692,77 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="6"/>
+        <v>3499.7349999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="C16" s="3">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E16" s="3">
+        <v>626.90538159999994</v>
+      </c>
+      <c r="F16" s="3">
+        <v>348.27168399999999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>38.387</v>
+      </c>
+      <c r="H16" s="3">
+        <v>51.889000000000003</v>
+      </c>
+      <c r="I16" s="3">
+        <v>51.598999999999997</v>
+      </c>
+      <c r="J16" s="3">
+        <v>76.75</v>
+      </c>
+      <c r="K16" s="3">
+        <v>77.604131199999998</v>
+      </c>
+      <c r="L16" s="3">
+        <v>276.07499999999999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>87.951999999999998</v>
+      </c>
+      <c r="N16" s="3">
+        <v>290.4345404</v>
+      </c>
+      <c r="O16" s="3">
+        <v>9.5559999999999992</v>
+      </c>
+      <c r="P16" s="3">
+        <v>45.902999999999999</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>15.39</v>
+      </c>
+      <c r="R16" s="3">
+        <v>75.608513600000009</v>
+      </c>
+      <c r="S16" s="3">
+        <v>6.977618399999999</v>
+      </c>
+      <c r="T16" s="3">
+        <v>214.364316</v>
+      </c>
+      <c r="U16" s="3">
+        <v>9.9878687999999993</v>
+      </c>
+      <c r="V16" s="3">
+        <v>21.240459599999998</v>
+      </c>
+      <c r="W16" s="3">
+        <v>7.1974863999999998</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -2152,35 +2776,77 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="33" customHeight="1">
-      <c r="A17" s="6"/>
+        <v>2336.2510000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="C17" s="3">
+        <v>134.27199999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12.196999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1693.6408796000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>674.650576</v>
+      </c>
+      <c r="G17" s="3">
+        <v>162.483</v>
+      </c>
+      <c r="H17" s="3">
+        <v>432.90600000000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>204.63800000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>630.59199999999998</v>
+      </c>
+      <c r="K17" s="3">
+        <v>179.65007420000001</v>
+      </c>
+      <c r="L17" s="3">
+        <v>538.45600000000002</v>
+      </c>
+      <c r="M17" s="3">
+        <v>170.917</v>
+      </c>
+      <c r="N17" s="3">
+        <v>805.41984479999996</v>
+      </c>
+      <c r="O17" s="3">
+        <v>101.083</v>
+      </c>
+      <c r="P17" s="3">
+        <v>264.18099999999998</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>803.93299999999999</v>
+      </c>
+      <c r="R17" s="3">
+        <v>279.41703120000005</v>
+      </c>
+      <c r="S17" s="3">
+        <v>22.199120399999998</v>
+      </c>
+      <c r="T17" s="3">
+        <v>415.253424</v>
+      </c>
+      <c r="U17" s="3">
+        <v>43.896925799999998</v>
+      </c>
+      <c r="V17" s="3">
+        <v>65.062155200000007</v>
+      </c>
+      <c r="W17" s="3">
+        <v>13.3509688</v>
+      </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -2194,35 +2860,77 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="33" customHeight="1">
-      <c r="A18" s="6"/>
+        <v>7648.1989999999987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="C18" s="3">
+        <v>499.17783679999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>58.466905599999997</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5701.1106214676802</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1418.4167027816</v>
+      </c>
+      <c r="G18" s="3">
+        <v>495.49841279999998</v>
+      </c>
+      <c r="H18" s="3">
+        <v>793.46921759999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3434.9912776000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>788.25378319999993</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1753.1283898479999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1067.7680352</v>
+      </c>
+      <c r="M18" s="3">
+        <v>811.32628</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3676.6042498297597</v>
+      </c>
+      <c r="O18" s="3">
+        <v>296.310564</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1204.1392664</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1049.5628368</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2861.0417751027203</v>
+      </c>
+      <c r="S18" s="3">
+        <v>78.664204132319995</v>
+      </c>
+      <c r="T18" s="3">
+        <v>873.04808361840003</v>
+      </c>
+      <c r="U18" s="3">
+        <v>302.97963175199999</v>
+      </c>
+      <c r="V18" s="3">
+        <v>190.31074617023998</v>
+      </c>
+      <c r="W18" s="3">
+        <v>99.097496097280001</v>
+      </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
@@ -2236,35 +2944,77 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="33" customHeight="1">
-      <c r="A19" s="6"/>
+        <v>27453.366316800006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="C19" s="3">
+        <v>43.241640599999997</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.4389495999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8252.4965577213297</v>
+      </c>
+      <c r="F19" s="3">
+        <v>457.82719094310005</v>
+      </c>
+      <c r="G19" s="3">
+        <v>383.0196345</v>
+      </c>
+      <c r="H19" s="3">
+        <v>538.97934869999995</v>
+      </c>
+      <c r="I19" s="3">
+        <v>341.9968824</v>
+      </c>
+      <c r="J19" s="3">
+        <v>126.8729007</v>
+      </c>
+      <c r="K19" s="3">
+        <v>592.06551268001999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1097.5441352999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>92.228996099999989</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2747.7001620122401</v>
+      </c>
+      <c r="O19" s="3">
+        <v>610.53283679999993</v>
+      </c>
+      <c r="P19" s="3">
+        <v>663.33580319999999</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>524.06417759999999</v>
+      </c>
+      <c r="R19" s="3">
+        <v>630.60424330367994</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2100.8415698786698</v>
+      </c>
+      <c r="T19" s="3">
+        <v>281.79670395689999</v>
+      </c>
+      <c r="U19" s="3">
+        <v>249.95039941998002</v>
+      </c>
+      <c r="V19" s="3">
+        <v>771.16236568776003</v>
+      </c>
+      <c r="W19" s="3">
+        <v>51.076321096320001</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -2278,35 +3028,77 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="33" customHeight="1">
-      <c r="A20" s="6"/>
+        <v>20559.776332199999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="C20" s="3">
+        <v>883.60377000000005</v>
+      </c>
+      <c r="D20" s="3">
+        <v>21.664802999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>26569.397999312099</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2722.8419119380001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>458.77962600000001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3150.3998459999998</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1095.7590479999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5201.0911980000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3100.7593629342</v>
+      </c>
+      <c r="L20" s="3">
+        <v>360.53610900000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>234.87506999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1983.1027994963999</v>
+      </c>
+      <c r="O20" s="3">
+        <v>634.34899800000005</v>
+      </c>
+      <c r="P20" s="3">
+        <v>740.15307900000005</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>4368.9586229999995</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1895.3564641943999</v>
+      </c>
+      <c r="S20" s="3">
+        <v>408.92929868790003</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1675.9333900619999</v>
+      </c>
+      <c r="U20" s="3">
+        <v>182.7801710658</v>
+      </c>
+      <c r="V20" s="3">
+        <v>170.3061525036</v>
+      </c>
+      <c r="W20" s="3">
+        <v>28.0728868056</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -2320,35 +3112,77 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="33" customHeight="1">
-      <c r="A21" s="6"/>
+        <v>55887.650607000018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="C21" s="3">
+        <v>23.316993</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.1804154000000002</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1522.8338356728</v>
+      </c>
+      <c r="F21" s="3">
+        <v>573.95729224260015</v>
+      </c>
+      <c r="G21" s="3">
+        <v>141.09403140000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>121.2628158</v>
+      </c>
+      <c r="I21" s="3">
+        <v>412.73991360000002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>125.5346064</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3242.6283247343999</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2815.3407744000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>190.8874548</v>
+      </c>
+      <c r="N21" s="3">
+        <v>4329.6607772812795</v>
+      </c>
+      <c r="O21" s="3">
+        <v>938.45407320000004</v>
+      </c>
+      <c r="P21" s="3">
+        <v>724.23563939999997</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>203.67858420000002</v>
+      </c>
+      <c r="R21" s="3">
+        <v>384.15661947936002</v>
+      </c>
+      <c r="S21" s="3">
+        <v>32.025215527200004</v>
+      </c>
+      <c r="T21" s="3">
+        <v>353.27581315740002</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1487.1091366655999</v>
+      </c>
+      <c r="V21" s="3">
+        <v>203.62886191872002</v>
+      </c>
+      <c r="W21" s="3">
+        <v>33.041098520639999</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -2362,35 +3196,77 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="33" customHeight="1">
-      <c r="A22" s="6"/>
+        <v>17863.042276799999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="C22" s="3">
+        <v>33.725415999999996</v>
+      </c>
+      <c r="D22" s="3">
+        <v>18.549971599999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7989.1129993408795</v>
+      </c>
+      <c r="F22" s="3">
+        <v>196.6611985184</v>
+      </c>
+      <c r="G22" s="3">
+        <v>459.00320959999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8624.0222283999992</v>
+      </c>
+      <c r="I22" s="3">
+        <v>149.0798408</v>
+      </c>
+      <c r="J22" s="3">
+        <v>176.3068844</v>
+      </c>
+      <c r="K22" s="3">
+        <v>641.07205054680003</v>
+      </c>
+      <c r="L22" s="3">
+        <v>112.7830728</v>
+      </c>
+      <c r="M22" s="3">
+        <v>139.3429548</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1584.6790741351999</v>
+      </c>
+      <c r="O22" s="3">
+        <v>436.42346279999998</v>
+      </c>
+      <c r="P22" s="3">
+        <v>246.0590268</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>184.65583600000002</v>
+      </c>
+      <c r="R22" s="3">
+        <v>37.192913360320006</v>
+      </c>
+      <c r="S22" s="3">
+        <v>181.95912105911998</v>
+      </c>
+      <c r="T22" s="3">
+        <v>121.04671508160001</v>
+      </c>
+      <c r="U22" s="3">
+        <v>153.80631985319999</v>
+      </c>
+      <c r="V22" s="3">
+        <v>693.34569826480003</v>
+      </c>
+      <c r="W22" s="3">
+        <v>2.3304546396800001</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -2404,35 +3280,77 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="33" customHeight="1">
-      <c r="A23" s="6"/>
+        <v>22181.158448800004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="C23" s="3">
+        <v>28.187163200000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.9080944</v>
+      </c>
+      <c r="E23" s="3">
+        <v>853.99163773231987</v>
+      </c>
+      <c r="F23" s="3">
+        <v>262.88571821840003</v>
+      </c>
+      <c r="G23" s="3">
+        <v>52.638587200000003</v>
+      </c>
+      <c r="H23" s="3">
+        <v>89.177782399999998</v>
+      </c>
+      <c r="I23" s="3">
+        <v>255.39172239999999</v>
+      </c>
+      <c r="J23" s="3">
+        <v>114.6902168</v>
+      </c>
+      <c r="K23" s="3">
+        <v>98.090543752000002</v>
+      </c>
+      <c r="L23" s="3">
+        <v>474.07796480000002</v>
+      </c>
+      <c r="M23" s="3">
+        <v>65.096720000000005</v>
+      </c>
+      <c r="N23" s="3">
+        <v>647.05263737024006</v>
+      </c>
+      <c r="O23" s="3">
+        <v>132.69243599999999</v>
+      </c>
+      <c r="P23" s="3">
+        <v>497.82173359999996</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>94.323163199999996</v>
+      </c>
+      <c r="R23" s="3">
+        <v>121.73301449728001</v>
+      </c>
+      <c r="S23" s="3">
+        <v>5.9445366676799987</v>
+      </c>
+      <c r="T23" s="3">
+        <v>161.80849538159998</v>
+      </c>
+      <c r="U23" s="3">
+        <v>26.890434647999999</v>
+      </c>
+      <c r="V23" s="3">
+        <v>49.600366629759996</v>
+      </c>
+      <c r="W23" s="3">
+        <v>19.118714302720001</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
@@ -2446,37 +3364,79 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="33" customHeight="1">
-      <c r="A24" s="6" t="s">
+        <v>4054.1216832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="C24" s="4">
+        <v>6547.0230000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>865.25400000000002</v>
+      </c>
+      <c r="E24" s="4">
+        <v>192748.72173059999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>49979.141392999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>12814.433000000001</v>
+      </c>
+      <c r="H24" s="4">
+        <v>86514.203999999998</v>
+      </c>
+      <c r="I24" s="4">
+        <v>32944.266000000003</v>
+      </c>
+      <c r="J24" s="4">
+        <v>34557.43</v>
+      </c>
+      <c r="K24" s="4">
+        <v>23952.216407</v>
+      </c>
+      <c r="L24" s="4">
+        <v>44478.012999999999</v>
+      </c>
+      <c r="M24" s="4">
+        <v>16034.514999999999</v>
+      </c>
+      <c r="N24" s="4">
+        <v>107585.29276160001</v>
+      </c>
+      <c r="O24" s="4">
+        <v>76987.937000000005</v>
+      </c>
+      <c r="P24" s="4">
+        <v>78542.589000000007</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>64861.093999999997</v>
+      </c>
+      <c r="R24" s="4">
+        <v>27180.7150936</v>
+      </c>
+      <c r="S24" s="4">
+        <v>3881.3762694000002</v>
+      </c>
+      <c r="T24" s="4">
+        <v>30762.605607000001</v>
+      </c>
+      <c r="U24" s="4">
+        <v>10553.842593000001</v>
+      </c>
+      <c r="V24" s="4">
+        <v>10545.8472384</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1072.2469063999999</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
@@ -2489,36 +3449,78 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="33" customHeight="1">
-      <c r="A25" s="6"/>
+        <f>SUM(C24:AH24)</f>
+        <v>913408.76400000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="C25" s="4">
+        <v>24582.852999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1185.5809999999999</v>
+      </c>
+      <c r="E25" s="4">
+        <v>273674.4123729</v>
+      </c>
+      <c r="F25" s="4">
+        <v>35880.453848000005</v>
+      </c>
+      <c r="G25" s="4">
+        <v>24118.968999999997</v>
+      </c>
+      <c r="H25" s="4">
+        <v>16010.707</v>
+      </c>
+      <c r="I25" s="4">
+        <v>27171.904000000002</v>
+      </c>
+      <c r="J25" s="4">
+        <v>13954.298999999999</v>
+      </c>
+      <c r="K25" s="4">
+        <v>34616.607305799997</v>
+      </c>
+      <c r="L25" s="4">
+        <v>56970.512999999999</v>
+      </c>
+      <c r="M25" s="4">
+        <v>119791.432</v>
+      </c>
+      <c r="N25" s="4">
+        <v>52901.981525199997</v>
+      </c>
+      <c r="O25" s="4">
+        <v>44826.656999999999</v>
+      </c>
+      <c r="P25" s="4">
+        <v>13838.985000000001</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>23973.508999999998</v>
+      </c>
+      <c r="R25" s="4">
+        <v>16533.329951199998</v>
+      </c>
+      <c r="S25" s="4">
+        <v>3704.7476271</v>
+      </c>
+      <c r="T25" s="4">
+        <v>22084.738151999998</v>
+      </c>
+      <c r="U25" s="4">
+        <v>13140.2856942</v>
+      </c>
+      <c r="V25" s="4">
+        <v>7041.4374747999991</v>
+      </c>
+      <c r="W25" s="4">
+        <v>669.60904879999998</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="3"/>
@@ -2531,38 +3533,17 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="33" customHeight="1">
-      <c r="A26" s="6" t="s">
+        <f>SUM(C25:AH25)</f>
+        <v>826673.01199999987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="3"/>
@@ -2579,8 +3560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="33" customHeight="1">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -2621,8 +3602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="33" customHeight="1">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -2663,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="33" customHeight="1">
+    <row r="29" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2707,34 +3688,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="33" customHeight="1">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
+      <c r="C30" s="4">
+        <v>992.26900000000001</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-26.815999999999999</v>
+      </c>
+      <c r="E30" s="4">
+        <v>58307.142289300005</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8266.7734739999996</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2913.6909999999998</v>
+      </c>
+      <c r="H30" s="4">
+        <v>18971.72</v>
+      </c>
+      <c r="I30" s="4">
+        <v>-3629.393</v>
+      </c>
+      <c r="J30" s="4">
+        <v>10098.726000000001</v>
+      </c>
+      <c r="K30" s="4">
+        <v>4092.2453339999997</v>
+      </c>
+      <c r="L30" s="4">
+        <v>7172.223</v>
+      </c>
+      <c r="M30" s="4">
+        <v>33101.688999999998</v>
+      </c>
+      <c r="N30" s="4">
+        <v>4518.8054132000007</v>
+      </c>
+      <c r="O30" s="4">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="P30" s="4">
+        <v>128.41800000000001</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>177.071</v>
+      </c>
+      <c r="R30" s="4">
+        <v>8924.0489464000002</v>
+      </c>
+      <c r="S30" s="4">
+        <v>512.23571070000003</v>
+      </c>
+      <c r="T30" s="4">
+        <v>5088.2725260000007</v>
+      </c>
+      <c r="U30" s="4">
+        <v>685.98066599999993</v>
+      </c>
+      <c r="V30" s="4">
+        <v>357.94758680000001</v>
+      </c>
+      <c r="W30" s="4">
+        <v>2.6520536000000003</v>
+      </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="3"/>
@@ -2748,11 +3771,11 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="33" customHeight="1">
-      <c r="A31" s="6"/>
+        <v>160659.128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -2793,8 +3816,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="33" customHeight="1">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -2835,8 +3858,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="33" customHeight="1">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
@@ -2879,32 +3902,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="33" customHeight="1">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
+      <c r="C34" s="5">
+        <v>12126.031000000001</v>
+      </c>
+      <c r="D34" s="5">
+        <v>146690.72899999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>444579.38063599996</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2378.4344580000002</v>
+      </c>
+      <c r="G34" s="5">
+        <v>177.20099999999999</v>
+      </c>
+      <c r="H34" s="5">
+        <v>35.432000000000002</v>
+      </c>
+      <c r="I34" s="5">
+        <v>24516.612000000001</v>
+      </c>
+      <c r="J34" s="5">
+        <v>18820.819</v>
+      </c>
+      <c r="K34" s="5">
+        <v>6288.0429876000007</v>
+      </c>
+      <c r="L34" s="5">
+        <v>3965.2249999999999</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1753.3440000000001</v>
+      </c>
+      <c r="N34" s="5">
+        <v>37076.588930799997</v>
+      </c>
+      <c r="O34" s="5">
+        <v>657.35900000000004</v>
+      </c>
+      <c r="P34" s="5">
+        <v>2315.5300000000002</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>361.84199999999998</v>
+      </c>
+      <c r="R34" s="5">
+        <v>6772.3005480000002</v>
+      </c>
+      <c r="S34" s="5">
+        <v>10695.437363999999</v>
+      </c>
+      <c r="T34" s="5">
+        <v>1463.9475419999999</v>
+      </c>
+      <c r="U34" s="5">
+        <v>3255.6620124000001</v>
+      </c>
+      <c r="V34" s="5">
+        <v>7574.2960691999997</v>
+      </c>
+      <c r="W34" s="5">
+        <v>74.275452000000001</v>
+      </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="3"/>
@@ -2918,97 +3983,97 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="33" customHeight="1">
-      <c r="A35" s="6" t="s">
+        <v>731578.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3">
         <f>SUM(C3:C34)</f>
-        <v>0</v>
+        <v>75059.411000000022</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ref="D35:Z35" si="2">SUM(D3:D34)</f>
-        <v>0</v>
+        <v>150977.182</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2241252.3016306995</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>179126.80124099998</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>121361.61600000004</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>275175.86499999993</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>179806.57399999999</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>190141.24699999994</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>124597.6555084</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>188464.76500000001</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>232016.86000000002</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>338248.21692560002</v>
       </c>
       <c r="O35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>160046.372</v>
       </c>
       <c r="P35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>132374.12900000004</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>167751.88099999999</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116722.49395759999</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33844.200369299993</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110254.13775899998</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>39883.651491600001</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36336.056074399996</v>
       </c>
       <c r="W35" s="3">
         <f>SUM(W3:W34)</f>
-        <v>0</v>
+        <v>4054.3380423999988</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="2"/>
@@ -3056,7 +4121,7 @@
       </c>
       <c r="AI35" s="3"/>
     </row>
-    <row r="38" spans="1:35" ht="33" customHeight="1">
+    <row r="38" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
     </row>
   </sheetData>
@@ -3080,50 +4145,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0F72CE-3ACE-C845-80CE-DEAAE0E0166A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23" customHeight="1">
+    <row r="2" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -3163,10 +4228,10 @@
       <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="39" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -3177,8 +4242,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -3187,8 +4252,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -3199,8 +4264,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" customHeight="1">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3209,8 +4274,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -3221,8 +4286,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" customHeight="1">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3231,8 +4296,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" customHeight="1">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1">
+    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3253,8 +4318,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -3265,8 +4330,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3275,8 +4340,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -3285,8 +4350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" customHeight="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3297,8 +4362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39" customHeight="1">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -3307,11 +4372,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39" customHeight="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16">
         <f>SUM(C3:C15)</f>
         <v>0</v>
@@ -3386,110 +4451,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E74E495-19C2-B348-9BFC-78328AEB3FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="X7" sqref="W7:X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6" t="s">
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
       <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6" t="s">
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6" t="s">
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="23" customHeight="1">
+    <row r="2" spans="1:56" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -3649,10 +4714,10 @@
       <c r="BC2" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" s="6"/>
-    </row>
-    <row r="3" spans="1:56" ht="39" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="BD2" s="7"/>
+    </row>
+    <row r="3" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
@@ -3663,128 +4728,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="39" customHeight="1">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="39" customHeight="1">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="39" customHeight="1">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="39" customHeight="1">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="39" customHeight="1">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="39" customHeight="1">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="39" customHeight="1">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="39" customHeight="1">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="39" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="39" customHeight="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="39" customHeight="1">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="39" customHeight="1">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="39" customHeight="1">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="39" customHeight="1">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="39" customHeight="1">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="39" customHeight="1">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="39" customHeight="1">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="39" customHeight="1">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="39" customHeight="1">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="39" customHeight="1">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="39" customHeight="1">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
@@ -3795,128 +4860,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" ht="39" customHeight="1">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="39" customHeight="1">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:56" ht="39" customHeight="1">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:56" ht="39" customHeight="1">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="39" customHeight="1">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="39" customHeight="1">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="39" customHeight="1">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:56" ht="39" customHeight="1">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="39" customHeight="1">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="39" customHeight="1">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:56" ht="39" customHeight="1">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:56" ht="39" customHeight="1">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="39" customHeight="1">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="39" customHeight="1">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:56" ht="39" customHeight="1">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="39" customHeight="1">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="39" customHeight="1">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:56" ht="39" customHeight="1">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="39" customHeight="1">
-      <c r="A43" s="6"/>
+    <row r="43" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:56" ht="39" customHeight="1">
-      <c r="A44" s="6"/>
+    <row r="44" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:56" ht="39" customHeight="1">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
@@ -3927,8 +4992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="39" customHeight="1">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -3937,8 +5002,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:56" ht="39" customHeight="1">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -3949,8 +5014,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:56" ht="39" customHeight="1">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>7</v>
       </c>
@@ -3959,8 +5024,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="39" customHeight="1">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>8</v>
       </c>
@@ -3969,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="39" customHeight="1">
+    <row r="50" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3981,8 +5046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="39" customHeight="1">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
@@ -3993,8 +5058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="39" customHeight="1">
-      <c r="A52" s="6"/>
+    <row r="52" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -4003,8 +5068,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:56" ht="39" customHeight="1">
-      <c r="A53" s="6"/>
+    <row r="53" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -4013,8 +5078,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:56" ht="39" customHeight="1">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
@@ -4025,8 +5090,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:56" ht="39" customHeight="1">
-      <c r="A55" s="6"/>
+    <row r="55" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>16</v>
       </c>
@@ -4035,11 +5100,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:56" ht="39" customHeight="1">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56">
         <f>SUM(C3:C55)</f>
         <v>0</v>
@@ -4095,20 +5160,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="X1:AR1"/>
     <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A24:A44"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="A45:A46"/>
+    <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A24:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sam 구축/sam_08_30.xlsx
+++ b/sam 구축/sam_08_30.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\sam 구축\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7655A5-D82A-0242-9929-BFA420C90AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설명표" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="거시 사회계정행렬(국산, 수입 구분)" sheetId="2" r:id="rId4"/>
     <sheet name="미시 사회계정행렬(국산, 수입 구분)" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,12 +262,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +289,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,14 +336,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -351,6 +358,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,50 +681,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -745,9 +761,9 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -770,8 +786,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:15" ht="39" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -781,8 +797,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:15" ht="39" customHeight="1">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -790,8 +806,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" ht="39" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -804,8 +820,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:15" ht="39" customHeight="1">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -813,8 +829,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:15" ht="39" customHeight="1">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -834,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="39" customHeight="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -851,8 +867,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:15" ht="39" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -862,8 +878,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:15" ht="39" customHeight="1">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -871,8 +887,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:15" ht="39" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -880,8 +896,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:15" ht="39" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -891,8 +907,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:15" ht="39" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -903,24 +919,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:15" ht="39" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -928,53 +944,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="15.44140625" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1011,407 +1027,407 @@
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>2465176.361</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>935933.77899999998</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
         <v>328663.18</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="8">
         <v>606119.42799999996</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
         <v>761603.00699999998</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
         <f>SUM(C3:N3)</f>
         <v>5097495.7550000008</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:15" ht="39" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>913408.76399999997</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8">
         <f t="shared" ref="O4:O14" si="0">SUM(C4:N4)</f>
         <v>913408.76399999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:15" ht="39" customHeight="1">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>826673.0120000001</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>826673.0120000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:15" ht="39" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <v>913408.76399999997</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <v>261977.7</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
         <f t="shared" si="0"/>
         <v>1175386.4639999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:15" ht="39" customHeight="1">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f>C5-E6</f>
         <v>564695.31200000015</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:15" ht="39" customHeight="1">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
         <v>98638.134000000136</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="8"/>
+      <c r="I8" s="10">
         <v>34470.755000000005</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8">
         <v>160659.128</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="8">
         <v>72174.278000000006</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="8">
         <v>96355.684999999823</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
         <f t="shared" si="0"/>
         <v>462297.97999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
         <v>143097</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>393882.9</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <v>133634.79999999999</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:15" ht="39" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <v>160659.128</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>160659.128</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:15" ht="39" customHeight="1">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <v>72174.278000000006</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:15" ht="39" customHeight="1">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10">
         <v>96355.684999999823</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
         <f t="shared" si="0"/>
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:15" ht="39" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8">
         <v>761603.00699999998</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="8">
         <f t="shared" si="0"/>
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:15" ht="39" customHeight="1">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="8">
         <v>731578.49</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10">
         <f>N13-C14</f>
         <v>30024.516999999993</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
         <f t="shared" si="0"/>
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:15" ht="39" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
         <f>SUM(C3:C14)</f>
         <v>5097495.7549999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="8">
         <f t="shared" ref="D15:N15" si="1">SUM(D3:D14)</f>
         <v>913408.76399999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <f t="shared" si="1"/>
         <v>826673.0120000001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>1175386.4639999999</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>564695.31200000015</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>462297.98</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>670614.69999999995</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>160659.128</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="8">
         <f t="shared" si="1"/>
         <v>72174.278000000006</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="8">
         <f t="shared" si="1"/>
         <v>96355.684999999823</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="8">
         <f t="shared" si="1"/>
         <v>761603.00699999998</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="8">
         <f t="shared" si="1"/>
         <v>761603.00699999998</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="6"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1419,89 +1435,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView topLeftCell="S13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z4"/>
+    <sheetView topLeftCell="E1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7" t="s">
+    <row r="1" spans="1:37" ht="33" customHeight="1">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
       <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7" t="s">
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="33" customHeight="1">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -1598,2534 +1614,2539 @@
       <c r="AH2" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="7"/>
-    </row>
-    <row r="3" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="AI2" s="6"/>
+    </row>
+    <row r="3" spans="1:37" ht="33" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4473.0429999999997</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>4.319</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>39046.895121900001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>49.076796000000002</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>10.343</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>380.60899999999998</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>21.111999999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>9454.4419999999991</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>19.204805</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>36.036000000000001</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>8.7260000000000009</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>281.93489679999999</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>290.95</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>89.918999999999997</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>1150.008</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>203.1617104</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>2.0258780999999999</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>30.207204000000001</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>3.135195</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>136.08210320000001</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>5.1982895999999998</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3">
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2">
         <f>SUM(C3:AH3)</f>
         <v>55696.429000000004</v>
       </c>
-      <c r="AK3" s="3"/>
-    </row>
-    <row r="4" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" ht="33" customHeight="1">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>110842.21400000001</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>37676.635000000002</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>293.53500000000003</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>4.194</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.127</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>23.072650799999998</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>5.3920000000000003</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>8.6430000000000007</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>2.0779999999999998</v>
       </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
         <v>0.5723492</v>
       </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3">
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2">
         <f t="shared" ref="AI4:AI26" si="0">SUM(C4:AH4)</f>
         <v>148859.299</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:37" ht="33" customHeight="1">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>17747.875359400001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>659.44305039999995</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>839233.6035804787</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>12865.232927056899</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>13861.0813655</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>103098.13265129999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>41947.463117600004</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>58596.154099299994</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>8200.9914303199803</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>4030.4418646999998</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>3766.4950039</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>33513.140411987762</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>9881.3841632000003</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>7971.0091967999997</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>39895.570822400005</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>24575.584037496323</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>9481.8572919213293</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>7918.6651780430993</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>2532.2076575800197</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <v>2417.9420603122398</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <v>300.55839810368002</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2">
         <f t="shared" si="0"/>
         <v>1242494.8336677996</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:37" ht="33" customHeight="1">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1435.5662299999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>35.198197</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>43166.554754787889</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>4423.724786062</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>745.36637400000006</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>5118.3661540000003</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1780.2489520000001</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>8450.0668020000012</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>5037.7166552658009</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>585.75289100000009</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>381.59492999999998</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>3221.8914249036002</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>1030.6090019999999</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>1202.5059210000002</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>7098.1243770000001</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>3079.3324182056003</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>664.37594721210007</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>2722.8419119380001</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>296.95781073420011</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <v>276.69162309640001</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>45.609230794399998</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2">
         <f t="shared" si="0"/>
         <v>90799.096392999985</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:37" ht="33" customHeight="1">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>915.38099999999997</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>108.59</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>37997.902108800001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2401.5373949999998</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>16182.191999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>1052.788</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>2613.6729999999998</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>5156.241</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>1262.4525538</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>1434.4010000000001</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>3101.9870000000001</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>8317.9505816000001</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>1856.575</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>3970.3519999999999</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>5150.9740000000002</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>2653.2842648000001</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="2">
         <v>192.56589120000001</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="2">
         <v>1478.1676050000001</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="2">
         <v>162.1914462</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="2">
         <v>566.94141839999998</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <v>46.388735199999999</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3">
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2">
         <f t="shared" si="0"/>
         <v>96622.535999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:37" ht="33" customHeight="1">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>81.793000000000006</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>16.648</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1208.1629416000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>187.527907</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>539.93100000000004</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>87.266000000000005</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>216.84</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>337.71300000000002</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>231.3851392</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>92.283000000000001</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>9163.8279999999995</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>678.84524399999998</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>833.03499999999997</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>176.26599999999999</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>115.029</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>224.06989199999998</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="2">
         <v>14.5810584</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2">
         <v>115.42509299999999</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="2">
         <v>31.973860799999997</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="2">
         <v>80.560756000000012</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <v>3.387108</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3">
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2">
         <f t="shared" si="0"/>
         <v>14436.551000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:37" ht="33" customHeight="1">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1006.255</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>626.02099999999996</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>46872.543870399997</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>13230.593897999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1782.85</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>2406.4050000000002</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>23796.05</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1142.2760000000001</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1766.2126880000001</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>885.10400000000004</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>570.495</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>4964.6881651999993</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>2587.777</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>476.87299999999999</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>603.60299999999995</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>1183.1409328</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="2">
         <v>546.23112960000003</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>8143.5481019999997</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>851.16931199999999</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="2">
         <v>754.48183480000012</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="2">
         <v>72.810067200000006</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3">
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2">
         <f t="shared" si="0"/>
         <v>114269.129</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:37" ht="33" customHeight="1">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>621.39800000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>98.004000000000005</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>11723.701414200001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>7536.5775519999997</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>931.19500000000005</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1142.242</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>2630.5990000000002</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1862.1780000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>1937.6779828000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>4717.0230000000001</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>1681.306</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>11055.381019999999</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>3037.89</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>8070.6440000000002</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>5936.2950000000001</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <v>5060.3196383999993</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="2">
         <v>226.40558580000001</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2">
         <v>4638.8304479999997</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>483.96501719999998</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <v>1011.14198</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <v>838.8803615999999</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2">
         <f t="shared" si="0"/>
         <v>75241.654999999984</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:37" ht="33" customHeight="1">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>198.75600700000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>15.678584600000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>4108.9196559271995</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>5859.2509027574006</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>371.8069686</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>407.80618420000002</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1504.1990863999999</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1288.3053936000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>13080.609454265599</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>6985.7902255999998</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>813.33554520000007</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>15062.23582511872</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>2234.9409267999999</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>2565.3153605999996</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>550.25241579999999</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>2298.6356917206399</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>77.233292872799993</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>3606.4209918426</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>2392.1200843344</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <v>535.67653568127992</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <v>156.42059027936</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3">
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2">
         <f t="shared" si="0"/>
         <v>64113.709723200009</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:37" ht="33" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1231.0119999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>191.881</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>18623.606704999998</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>5027.0351799999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>2048.471</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>5248.2089999999998</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>2440.3780000000002</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>3163.9119999999998</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>1425.7833298</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>28519.482</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>20055.798999999999</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>5154.3130964000002</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>4989.7780000000002</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>1699.3879999999999</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>3701.8310000000001</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <v>1994.7095967999999</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="2">
         <v>302.27329499999996</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <v>3094.1848199999999</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>350.77867019999997</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="2">
         <v>261.10590359999998</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="2">
         <v>130.98140319999999</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3">
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2">
         <f t="shared" si="0"/>
         <v>109654.91300000002</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:37" ht="33" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>66.954999999999998</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>7.782</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>3812.8829238999997</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>9594.3285370000012</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>564.05100000000004</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>781.476</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1530.2639999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>11059.503000000001</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>1260.54375</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>7292.3990000000003</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>7982.9769999999999</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>7643.1378156000001</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>1738.5119999999999</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>2240.83</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>3964.5590000000002</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="2">
         <v>2135.0154175999996</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="2">
         <v>72.34307609999999</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="2">
         <v>5905.3944630000005</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="2">
         <v>400.34924999999998</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="2">
         <v>419.91518440000004</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <v>185.7835824</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3">
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2">
         <f t="shared" si="0"/>
         <v>68659.002000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:37" ht="33" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1288.728584</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>375.57602839999998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>62096.167612459125</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>14791.599912481601</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>4432.4957904000003</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>19824.860771600001</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>13794.367159199999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>4954.8961156000005</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>11740.967295653199</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>14557.4969272</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>12016.583045199999</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>30184.3030770648</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>5924.7485372000001</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>4699.5799731999996</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>2958.9091639999997</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="2">
         <v>4794.6532434396804</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="2">
         <v>632.97026714087997</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="2">
         <v>9104.3611739184016</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="2">
         <v>2285.6313339467997</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="2">
         <v>2190.7591505351998</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <v>196.25138856031998</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3">
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2">
         <f t="shared" si="0"/>
         <v>222845.90655120002</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:37" ht="33" customHeight="1">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>94.936000000000007</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>581.79499999999996</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
         <v>2823.0039999999999</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2">
         <f t="shared" si="0"/>
         <v>3499.7349999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:37" ht="33" customHeight="1">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>3.4510000000000001</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>626.90538159999994</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>348.27168399999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>38.387</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>51.889000000000003</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>51.598999999999997</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>76.75</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>77.604131199999998</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>276.07499999999999</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>87.951999999999998</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>290.4345404</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>9.5559999999999992</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>45.902999999999999</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>15.39</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="2">
         <v>75.608513600000009</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <v>6.977618399999999</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="2">
         <v>214.364316</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="2">
         <v>9.9878687999999993</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="2">
         <v>21.240459599999998</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <v>7.1974863999999998</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3">
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2">
         <f t="shared" si="0"/>
         <v>2336.2510000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:35" ht="33" customHeight="1">
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>134.27199999999999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>12.196999999999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1693.6408796000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>674.650576</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>162.483</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>432.90600000000001</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>204.63800000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>630.59199999999998</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>179.65007420000001</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>538.45600000000002</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>170.917</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>805.41984479999996</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>101.083</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>264.18099999999998</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>803.93299999999999</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <v>279.41703120000005</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="2">
         <v>22.199120399999998</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="2">
         <v>415.253424</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="2">
         <v>43.896925799999998</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="2">
         <v>65.062155200000007</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="2">
         <v>13.3509688</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3">
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2">
         <f t="shared" si="0"/>
         <v>7648.1989999999987</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:35" ht="33" customHeight="1">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>499.17783679999997</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>58.466905599999997</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>5701.1106214676802</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>1418.4167027816</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>495.49841279999998</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>793.46921759999998</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>3434.9912776000001</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>788.25378319999993</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>1753.1283898479999</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>1067.7680352</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>811.32628</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>3676.6042498297597</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>296.310564</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>1204.1392664</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <v>1049.5628368</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="2">
         <v>2861.0417751027203</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="2">
         <v>78.664204132319995</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="2">
         <v>873.04808361840003</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="2">
         <v>302.97963175199999</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="2">
         <v>190.31074617023998</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="2">
         <v>99.097496097280001</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3">
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2">
         <f t="shared" si="0"/>
         <v>27453.366316800006</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:35" ht="33" customHeight="1">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>43.241640599999997</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2.4389495999999999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>8252.4965577213297</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>457.82719094310005</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>383.0196345</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>538.97934869999995</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>341.9968824</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>126.8729007</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>592.06551268001999</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>1097.5441352999999</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>92.228996099999989</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>2747.7001620122401</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>610.53283679999993</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>663.33580319999999</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2">
         <v>524.06417759999999</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="2">
         <v>630.60424330367994</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="2">
         <v>2100.8415698786698</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="2">
         <v>281.79670395689999</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="2">
         <v>249.95039941998002</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="2">
         <v>771.16236568776003</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="2">
         <v>51.076321096320001</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3">
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2">
         <f t="shared" si="0"/>
         <v>20559.776332199999</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:35" ht="33" customHeight="1">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>883.60377000000005</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>21.664802999999999</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>26569.397999312099</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>2722.8419119380001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>458.77962600000001</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>3150.3998459999998</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>1095.7590479999999</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>5201.0911980000001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>3100.7593629342</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>360.53610900000001</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>234.87506999999999</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>1983.1027994963999</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>634.34899800000005</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>740.15307900000005</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <v>4368.9586229999995</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="2">
         <v>1895.3564641943999</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="2">
         <v>408.92929868790003</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="2">
         <v>1675.9333900619999</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="2">
         <v>182.7801710658</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="2">
         <v>170.3061525036</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="2">
         <v>28.0728868056</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3">
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2">
         <f t="shared" si="0"/>
         <v>55887.650607000018</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:35" ht="33" customHeight="1">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>23.316993</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>4.1804154000000002</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1522.8338356728</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>573.95729224260015</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>141.09403140000001</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>121.2628158</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>412.73991360000002</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>125.5346064</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>3242.6283247343999</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>2815.3407744000001</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>190.8874548</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>4329.6607772812795</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>938.45407320000004</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <v>724.23563939999997</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>203.67858420000002</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="2">
         <v>384.15661947936002</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <v>32.025215527200004</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="2">
         <v>353.27581315740002</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="2">
         <v>1487.1091366655999</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="2">
         <v>203.62886191872002</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="2">
         <v>33.041098520639999</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2">
         <f t="shared" si="0"/>
         <v>17863.042276799999</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:35" ht="33" customHeight="1">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>33.725415999999996</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>18.549971599999999</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>7989.1129993408795</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>196.6611985184</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>459.00320959999999</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>8624.0222283999992</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>149.0798408</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>176.3068844</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>641.07205054680003</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>112.7830728</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>139.3429548</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>1584.6790741351999</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>436.42346279999998</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>246.0590268</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="2">
         <v>184.65583600000002</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="2">
         <v>37.192913360320006</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="2">
         <v>181.95912105911998</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="2">
         <v>121.04671508160001</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="2">
         <v>153.80631985319999</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="2">
         <v>693.34569826480003</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="2">
         <v>2.3304546396800001</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3">
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2">
         <f t="shared" si="0"/>
         <v>22181.158448800004</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:35" ht="33" customHeight="1">
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>28.187163200000001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>2.9080944</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>853.99163773231987</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>262.88571821840003</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>52.638587200000003</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>89.177782399999998</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>255.39172239999999</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>114.6902168</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>98.090543752000002</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>474.07796480000002</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>65.096720000000005</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>647.05263737024006</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>132.69243599999999</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>497.82173359999996</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>94.323163199999996</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="2">
         <v>121.73301449728001</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="2">
         <v>5.9445366676799987</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="2">
         <v>161.80849538159998</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="2">
         <v>26.890434647999999</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="2">
         <v>49.600366629759996</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="2">
         <v>19.118714302720001</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3">
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2">
         <f t="shared" si="0"/>
         <v>4054.1216832</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:35" ht="33" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>6547.0230000000001</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>865.25400000000002</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>192748.72173059999</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>49979.141392999998</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>12814.433000000001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>86514.203999999998</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>32944.266000000003</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>34557.43</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>23952.216407</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>44478.012999999999</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>16034.514999999999</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>107585.29276160001</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>76987.937000000005</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>78542.589000000007</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>64861.093999999997</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>27180.7150936</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>3881.3762694000002</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>30762.605607000001</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <v>10553.842593000001</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="3">
         <v>10545.8472384</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3">
         <v>1072.2469063999999</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3">
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2">
         <f>SUM(C24:AH24)</f>
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:35" ht="33" customHeight="1">
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>24582.852999999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1185.5809999999999</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>273674.4123729</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>35880.453848000005</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>24118.968999999997</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>16010.707</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>27171.904000000002</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>13954.298999999999</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>34616.607305799997</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>56970.512999999999</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>119791.432</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>52901.981525199997</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>44826.656999999999</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>13838.985000000001</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>23973.508999999998</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>16533.329951199998</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <v>3704.7476271</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>22084.738151999998</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <v>13140.2856942</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <v>7041.4374747999991</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <v>669.60904879999998</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2">
         <f>SUM(C25:AH25)</f>
         <v>826673.01199999987</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:35" ht="33" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:35" ht="33" customHeight="1">
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2">
         <f t="shared" ref="AI27:AI34" si="1">SUM(C27:AH27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:35" ht="33" customHeight="1">
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="33" customHeight="1">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:35" ht="33" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>992.26900000000001</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>-26.815999999999999</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>58307.142289300005</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>8266.7734739999996</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>2913.6909999999998</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>18971.72</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>-3629.393</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>10098.726000000001</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>4092.2453339999997</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>7172.223</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>33101.688999999998</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>4518.8054132000007</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>3.4260000000000002</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>128.41800000000001</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <v>177.071</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="3">
         <v>8924.0489464000002</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="3">
         <v>512.23571070000003</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <v>5088.2725260000007</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="3">
         <v>685.98066599999993</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30" s="3">
         <v>357.94758680000001</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="3">
         <v>2.6520536000000003</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2">
         <f t="shared" si="1"/>
         <v>160659.128</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:35" ht="33" customHeight="1">
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:35" ht="33" customHeight="1">
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:35" ht="33" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:35" ht="33" customHeight="1">
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>12126.031000000001</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>146690.72899999999</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>444579.38063599996</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>2378.4344580000002</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>177.20099999999999</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>35.432000000000002</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>24516.612000000001</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>18820.819</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>6288.0429876000007</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>3965.2249999999999</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>1753.3440000000001</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>37076.588930799997</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>657.35900000000004</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <v>2315.5300000000002</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="4">
         <v>361.84199999999998</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="4">
         <v>6772.3005480000002</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="4">
         <v>10695.437363999999</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="4">
         <v>1463.9475419999999</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="4">
         <v>3255.6620124000001</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="4">
         <v>7574.2960691999997</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="4">
         <v>74.275452000000001</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2">
         <f t="shared" si="1"/>
         <v>731578.49</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:35" ht="33" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="2">
         <f>SUM(C3:C34)</f>
         <v>75059.411000000022</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f t="shared" ref="D35:Z35" si="2">SUM(D3:D34)</f>
         <v>150977.182</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="2"/>
         <v>2241252.3016306995</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="2"/>
         <v>179126.80124099998</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="2"/>
         <v>121361.61600000004</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>275175.86499999993</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <f t="shared" si="2"/>
         <v>179806.57399999999</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="2"/>
         <v>190141.24699999994</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <f t="shared" si="2"/>
         <v>124597.6555084</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <f t="shared" si="2"/>
         <v>188464.76500000001</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <f t="shared" si="2"/>
         <v>232016.86000000002</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <f t="shared" si="2"/>
         <v>338248.21692560002</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <f t="shared" si="2"/>
         <v>160046.372</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="2">
         <f t="shared" si="2"/>
         <v>132374.12900000004</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="2">
         <f t="shared" si="2"/>
         <v>167751.88099999999</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="2">
         <f t="shared" si="2"/>
         <v>116722.49395759999</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="2">
         <f t="shared" si="2"/>
         <v>33844.200369299993</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="2">
         <f t="shared" si="2"/>
         <v>110254.13775899998</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="2">
         <f t="shared" si="2"/>
         <v>39883.651491600001</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="2">
         <f t="shared" si="2"/>
         <v>36336.056074399996</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="2">
         <f>SUM(W3:W34)</f>
         <v>4054.3380423999988</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="2">
         <f t="shared" ref="AA35:AH35" si="3">SUM(AA3:AA34)</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AE35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AF35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AG35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH35" s="3">
+      <c r="AH35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="3"/>
-    </row>
-    <row r="38" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
+      <c r="AI35" s="2"/>
+    </row>
+    <row r="38" spans="1:35" ht="33" customHeight="1">
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A3:A23"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C1:W1"/>
@@ -4133,11 +4154,6 @@
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A3:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4145,50 +4161,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:16">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="23" customHeight="1">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -4228,10 +4244,10 @@
       <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -4242,8 +4258,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:16" ht="39" customHeight="1">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -4252,8 +4268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" ht="39" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -4264,8 +4280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:16" ht="39" customHeight="1">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4274,8 +4290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:16" ht="39" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4286,8 +4302,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:16" ht="39" customHeight="1">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4296,8 +4312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:16" ht="39" customHeight="1">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4306,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="39" customHeight="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4318,8 +4334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:16" ht="39" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -4330,8 +4346,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:16" ht="39" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4340,8 +4356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:16" ht="39" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -4350,8 +4366,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:16" ht="39" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -4362,8 +4378,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:16" ht="39" customHeight="1">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -4372,11 +4388,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:16" ht="39" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16">
         <f>SUM(C3:C15)</f>
         <v>0</v>
@@ -4432,6 +4448,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C1:D1"/>
@@ -4439,11 +4460,6 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4451,110 +4467,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="X7" sqref="W7:X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:56">
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7" t="s">
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
       <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7" t="s">
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7" t="s">
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" ht="23" customHeight="1">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -4714,10 +4730,10 @@
       <c r="BC2" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" s="7"/>
-    </row>
-    <row r="3" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="BD2" s="6"/>
+    </row>
+    <row r="3" spans="1:56" ht="39" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
@@ -4728,128 +4744,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:56" ht="39" customHeight="1">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:56" ht="39" customHeight="1">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:56" ht="39" customHeight="1">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:56" ht="39" customHeight="1">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:56" ht="39" customHeight="1">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:56" ht="39" customHeight="1">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:56" ht="39" customHeight="1">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:56" ht="39" customHeight="1">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:56" ht="39" customHeight="1">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:56" ht="39" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:56" ht="39" customHeight="1">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:56" ht="39" customHeight="1">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:56" ht="39" customHeight="1">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:56" ht="39" customHeight="1">
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:56" ht="39" customHeight="1">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:56" ht="39" customHeight="1">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:56" ht="39" customHeight="1">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:56" ht="39" customHeight="1">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:56" ht="39" customHeight="1">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:56" ht="39" customHeight="1">
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:56" ht="39" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
@@ -4860,128 +4876,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:56" ht="39" customHeight="1">
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:56" ht="39" customHeight="1">
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:56" ht="39" customHeight="1">
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:56" ht="39" customHeight="1">
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:56" ht="39" customHeight="1">
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:56" ht="39" customHeight="1">
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:56" ht="39" customHeight="1">
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:56" ht="39" customHeight="1">
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:56" ht="39" customHeight="1">
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:56" ht="39" customHeight="1">
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:56" ht="39" customHeight="1">
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:56" ht="39" customHeight="1">
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:56" ht="39" customHeight="1">
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:56" ht="39" customHeight="1">
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:56" ht="39" customHeight="1">
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:56" ht="39" customHeight="1">
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:56" ht="39" customHeight="1">
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:56" ht="39" customHeight="1">
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:56" ht="39" customHeight="1">
+      <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:56" ht="39" customHeight="1">
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:56" ht="39" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
@@ -4992,8 +5008,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:56" ht="39" customHeight="1">
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -5002,8 +5018,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:56" ht="39" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -5014,8 +5030,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:56" ht="39" customHeight="1">
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>7</v>
       </c>
@@ -5024,8 +5040,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:56" ht="39" customHeight="1">
+      <c r="A49" s="6"/>
       <c r="B49" t="s">
         <v>8</v>
       </c>
@@ -5034,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:56" ht="39" customHeight="1">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -5046,8 +5062,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:56" ht="39" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
@@ -5058,8 +5074,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:56" ht="39" customHeight="1">
+      <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -5068,8 +5084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:56" ht="39" customHeight="1">
+      <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -5078,8 +5094,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:56" ht="39" customHeight="1">
+      <c r="A54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
@@ -5090,8 +5106,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
+    <row r="55" spans="1:56" ht="39" customHeight="1">
+      <c r="A55" s="6"/>
       <c r="B55" t="s">
         <v>16</v>
       </c>
@@ -5100,11 +5116,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:56" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:56" ht="39" customHeight="1">
+      <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
       <c r="C56">
         <f>SUM(C3:C55)</f>
         <v>0</v>
@@ -5160,6 +5176,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A24:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="X1:AR1"/>
@@ -5167,13 +5190,6 @@
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A24:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
